--- a/jpcore-r4/feature/swg5-immunizationへのJPCore参照等/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/feature/swg5-immunizationへのJPCore参照等/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T21:59:02+00:00</t>
+    <t>2022-09-09T21:01:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -129,49 +129,43 @@
     <t>Count</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>医科</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>歯科</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>調剤</t>
+  </si>
+  <si>
+    <t>老人保健施設</t>
+  </si>
+  <si>
     <t>6</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>助産所</t>
-  </si>
-  <si>
-    <t>医科</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>歯科</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>調剤</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>老人保健施設</t>
   </si>
   <si>
     <t>訪問看護ステーション</t>
@@ -497,7 +491,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +516,10 @@
         <v>43</v>
       </c>
       <c r="B2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>44</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -534,7 +528,7 @@
         <v>43</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>46</v>
@@ -558,10 +552,10 @@
         <v>43</v>
       </c>
       <c r="B5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>50</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -570,24 +564,12 @@
         <v>43</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="C6" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="D7" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
